--- a/vistas/modulos/Reporte_Contratados.xlsx
+++ b/vistas/modulos/Reporte_Contratados.xlsx
@@ -142,7 +142,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -654,12 +654,12 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>0017</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>RESIDENCIAL LAS PILETAS</t>
+          <t>GERENCIA ADMINISTRATIVA</t>
         </is>
       </c>
     </row>
@@ -765,6 +765,774 @@
         </is>
       </c>
       <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>003348</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>ROBERTO   HERNANDEZ LOPEZ/SIN UNIFORME</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>250.00 </t>
+        </is>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-03 00:00:00 </t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>2030-11-20 00:00:00  </t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>F.RETIRO</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>******</t>
+        </is>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>31/03/04</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>02031000-1</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>68871345</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="N10" s="1" t="inlineStr">
+        <is>
+          <t>GUARDAESPALDA</t>
+        </is>
+      </c>
+      <c r="O10" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P10" s="1" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
+      <c r="Q10" s="1" t="inlineStr">
+        <is>
+          <t>199680452</t>
+        </is>
+      </c>
+      <c r="R10" s="1" t="inlineStr">
+        <is>
+          <t>0614 180868 112 3</t>
+        </is>
+      </c>
+      <c r="S10" s="1" t="inlineStr">
+        <is>
+          <t>0368-052358-4</t>
+        </is>
+      </c>
+      <c r="T10" s="1" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>CELIA NOEMI  BARILLAS ZEPEDA/SIN UNIFORME</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>0.00 </t>
+        </is>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>0000-00-00 00:00:00 </t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>2014-08-16 00:00:00  </t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>F.RETIRO</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>******</t>
+        </is>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>00575460-4</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>269697160000</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N11" s="1" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
+      <c r="O11" s="1" t="inlineStr">
+        <is>
+          <t>193732558</t>
+        </is>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
+        <is>
+          <t>0816-031173-101-3</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="inlineStr">
+        <is>
+          <t>0122-038904-1</t>
+        </is>
+      </c>
+      <c r="R11" s="1" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>ELIZABETH DEL CARMEN  RECINOS HERNANDEZ/SIN UNIFORME</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>0.00 </t>
+        </is>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>2006-01-15 00:00:00 </t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>2006-01-20 00:00:00  </t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>F.RETIRO</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="inlineStr">
+        <is>
+          <t>******</t>
+        </is>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>07/01/15</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>02250350-3</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
+          <t>255127080005</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="N12" s="1" t="inlineStr">
+        <is>
+          <t>GERENTE ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="O12" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P12" s="1" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
+      <c r="Q12" s="1" t="inlineStr">
+        <is>
+          <t>389694555</t>
+        </is>
+      </c>
+      <c r="R12" s="1" t="inlineStr">
+        <is>
+          <t>0614-071169-110-1</t>
+        </is>
+      </c>
+      <c r="S12" s="1" t="inlineStr">
+        <is>
+          <t>0322-045110-3</t>
+        </is>
+      </c>
+      <c r="T12" s="1" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>LUIS FRANCISCO  RECINOS HENRIQUEZ/SIN UNIFORME</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>0.00 </t>
+        </is>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>2001-11-17 00:00:00 </t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>2001-11-17 00:00:00  </t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>F.RETIRO</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>******</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>05010802-8</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="inlineStr">
+        <is>
+          <t>MANTENIMIENTO</t>
+        </is>
+      </c>
+      <c r="N13" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O13" s="1" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
+      <c r="P13" s="1" t="inlineStr">
+        <is>
+          <t>0302-300694-101-0</t>
+        </is>
+      </c>
+      <c r="Q13" s="1" t="inlineStr">
+        <is>
+          <t>0366-043123-5</t>
+        </is>
+      </c>
+      <c r="R13" s="1" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>013203</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>JOSE BENJAMIN  SANTOS HERNANDEZ/SIN UNIFORME</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>305.00 </t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>2017-10-19 00:00:00 </t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>2017-10-19 00:00:00  </t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>F.RETIRO</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>******</t>
+        </is>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>17/10/19</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>02264938-3</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr">
+        <is>
+          <t>275402640001</t>
+        </is>
+      </c>
+      <c r="M14" s="1" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="N14" s="1" t="inlineStr">
+        <is>
+          <t>AGENTE DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="O14" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P14" s="1" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
+      <c r="Q14" s="1" t="inlineStr">
+        <is>
+          <t>106750779</t>
+        </is>
+      </c>
+      <c r="R14" s="1" t="inlineStr">
+        <is>
+          <t>0210-280575-110-4</t>
+        </is>
+      </c>
+      <c r="S14" s="1" t="inlineStr">
+        <is>
+          <t>0311-109439-1</t>
+        </is>
+      </c>
+      <c r="T14" s="1" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>013882</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>HUGO LUIS  BARILLAS SANABRIA/SIN UNIFORME</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>305.00 </t>
+        </is>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>2021-01-21 00:00:00 </t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>2021-01-21 00:00:00  </t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>F.RETIRO</t>
+        </is>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
+        <is>
+          <t>******</t>
+        </is>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
+          <t>26/01/21</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>03356690-4</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="inlineStr">
+        <is>
+          <t>313512220018</t>
+        </is>
+      </c>
+      <c r="M15" s="1" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="N15" s="1" t="inlineStr">
+        <is>
+          <t>AGENTE DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="O15" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P15" s="1" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
+      <c r="Q15" s="1" t="inlineStr">
+        <is>
+          <t>106856963</t>
+        </is>
+      </c>
+      <c r="R15" s="1" t="inlineStr">
+        <is>
+          <t>0210-021185-106-8</t>
+        </is>
+      </c>
+      <c r="S15" s="1" t="inlineStr">
+        <is>
+          <t>0322-059358-2</t>
+        </is>
+      </c>
+      <c r="T15" s="1" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>013930</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>JUAN ANTONIO  HENRIQUEZ ANZORA/SIN UNIFORME</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>0.00 </t>
+        </is>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>2010-02-21 00:00:00 </t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>2010-02-21 00:00:00  </t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>F.RETIRO</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>******</t>
+        </is>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>19/02/21</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>03536638-4</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="inlineStr">
+        <is>
+          <t>315301870000</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="N16" s="1" t="inlineStr">
+        <is>
+          <t>AGENTE DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="O16" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P16" s="1" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
+      <c r="Q16" s="1" t="inlineStr">
+        <is>
+          <t>107861358</t>
+        </is>
+      </c>
+      <c r="R16" s="1" t="inlineStr">
+        <is>
+          <t>0706-300486-101-6</t>
+        </is>
+      </c>
+      <c r="S16" s="1" t="inlineStr">
+        <is>
+          <t>0311-255798-3</t>
+        </is>
+      </c>
+      <c r="T16" s="1" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>015517</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>JOSE ALBERTO  TOBAR ORTIZ/SIN UNIFORME</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>0.00 </t>
+        </is>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>2006-03-23 00:00:00 </t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>2006-03-23 00:00:00  </t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>F.RETIRO</t>
+        </is>
+      </c>
+      <c r="I17" s="1" t="inlineStr">
+        <is>
+          <t>******</t>
+        </is>
+      </c>
+      <c r="J17" s="1" t="inlineStr">
+        <is>
+          <t>06/03/23</t>
+        </is>
+      </c>
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>03879639-2</t>
+        </is>
+      </c>
+      <c r="L17" s="1" t="inlineStr">
+        <is>
+          <t>321682590002</t>
+        </is>
+      </c>
+      <c r="M17" s="1" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="N17" s="1" t="inlineStr">
+        <is>
+          <t>AGENTE DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="O17" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P17" s="1" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
+      <c r="Q17" s="1" t="inlineStr">
+        <is>
+          <t>107885362</t>
+        </is>
+      </c>
+      <c r="R17" s="1" t="inlineStr">
+        <is>
+          <t>0309-280188-101-0</t>
+        </is>
+      </c>
+      <c r="S17" s="1" t="inlineStr">
+        <is>
+          <t>0322-065675-1</t>
+        </is>
+      </c>
+      <c r="T17" s="1" t="inlineStr">
         <is>
           <t>MOTIVO</t>
         </is>

--- a/vistas/modulos/Reporte_Contratados.xlsx
+++ b/vistas/modulos/Reporte_Contratados.xlsx
@@ -142,7 +142,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>0000-00-00 00:00:00  </t>
+          <t>2023-07-06 06:34:05  </t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
@@ -577,7 +577,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>  </t>
+          <t>16  </t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
@@ -597,55 +597,65 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
+          <t>CC PLAZA MUNDO I ETAPA                  </t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>02445949-1</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>244896910007</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>SUB GERENTE GENERAL</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R7" s="1" t="inlineStr">
+        <is>
+          <t>0614-190167-001-8</t>
+        </is>
+      </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
           <t>******</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>02445949-1</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>244896910007</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="inlineStr">
-        <is>
-          <t>0002</t>
-        </is>
-      </c>
-      <c r="M7" s="1" t="inlineStr">
-        <is>
-          <t>SUB GERENTE GENERAL</t>
-        </is>
-      </c>
-      <c r="N7" s="1" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr">
-        <is>
-          <t>0000-00-00</t>
-        </is>
-      </c>
-      <c r="P7" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" s="1" t="inlineStr">
-        <is>
-          <t>0614-190167-001-8</t>
-        </is>
-      </c>
-      <c r="R7" s="1" t="inlineStr">
+      <c r="T7" s="1" t="inlineStr">
         <is>
           <t>0547-030589-5</t>
         </is>
       </c>
-      <c r="S7" s="1" t="inlineStr">
+      <c r="U7" s="1" t="inlineStr">
         <is>
           <t>MOTIVO</t>
         </is>
@@ -654,12 +664,12 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0007</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>GERENCIA ADMINISTRATIVA</t>
+          <t>GERENCIA DE OPERACIONES</t>
         </is>
       </c>
     </row>
@@ -773,20 +783,24 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>003348</t>
+          <t>003240</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>ROBERTO   HERNANDEZ LOPEZ/SIN UNIFORME</t>
+          <t>DAVID DE JESUS  ARGUMEDO MERLOS/SIN UNIFORME</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>250.00 </t>
-        </is>
-      </c>
-      <c r="D10" s="1"/>
+          <t>0.00 </t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
           <t>  </t>
@@ -794,12 +808,12 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>2025-03-03 00:00:00 </t>
+          <t>2010-01-03 00:00:00 </t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>2030-11-20 00:00:00  </t>
+          <t>2009-02-23 00:00:00  </t>
         </is>
       </c>
       <c r="H10" s="1" t="inlineStr">
@@ -819,22 +833,22 @@
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>02031000-1</t>
+          <t>02596530-6</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>68871345</t>
+          <t>282362190000</t>
         </is>
       </c>
       <c r="M10" s="1" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="N10" s="1" t="inlineStr">
         <is>
-          <t>GUARDAESPALDA</t>
+          <t>COORDINADOR DE ZONA</t>
         </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
@@ -849,17 +863,17 @@
       </c>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t>199680452</t>
+          <t>198778132</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>0614 180868 112 3</t>
+          <t>0210-230477-110-5</t>
         </is>
       </c>
       <c r="S10" s="1" t="inlineStr">
         <is>
-          <t>0368-052358-4</t>
+          <t>0311-089222-9</t>
         </is>
       </c>
       <c r="T10" s="1" t="inlineStr">
@@ -871,12 +885,12 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>002258</t>
+          <t>000346</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>CELIA NOEMI  BARILLAS ZEPEDA/SIN UNIFORME</t>
+          <t>LUIS ANTONIO  SANCHEZ BURGOS/SIN UNIFORME</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -892,12 +906,12 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>0000-00-00 00:00:00 </t>
+          <t>2020-03-10 00:00:00 </t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>2014-08-16 00:00:00  </t>
+          <t>2016-04-21 00:00:00  </t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
@@ -912,45 +926,50 @@
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00575460-4</t>
+          <t>01/07/11</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>269697160000</t>
+          <t>00784568-7</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M11" s="1" t="inlineStr">
         <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="N11" s="1" t="inlineStr">
+        <is>
+          <t>COORDINADOR DE ZONA</t>
+        </is>
+      </c>
+      <c r="O11" s="1" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" s="1" t="inlineStr">
+      <c r="P11" s="1" t="inlineStr">
         <is>
           <t>0000-00-00</t>
         </is>
       </c>
-      <c r="O11" s="1" t="inlineStr">
-        <is>
-          <t>193732558</t>
-        </is>
-      </c>
-      <c r="P11" s="1" t="inlineStr">
-        <is>
-          <t>0816-031173-101-3</t>
-        </is>
-      </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>0122-038904-1</t>
+          <t>0813 260463 001 7</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
+        <is>
+          <t>0322-059950-1</t>
+        </is>
+      </c>
+      <c r="S11" s="1" t="inlineStr">
         <is>
           <t>MOTIVO</t>
         </is>
@@ -959,12 +978,12 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>010593</t>
+          <t>000080</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>ELIZABETH DEL CARMEN  RECINOS HERNANDEZ/SIN UNIFORME</t>
+          <t>JUAN HUMBERTO  MARTINEZ ESPA_A/SIN UNIFORME</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -980,12 +999,12 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>2006-01-15 00:00:00 </t>
+          <t>0000-00-00 00:00:00 </t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>2006-01-20 00:00:00  </t>
+          <t>2017-02-23 00:00:00  </t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
@@ -1000,27 +1019,27 @@
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>07/01/15</t>
+          <t>15/04/04</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>02250350-3</t>
+          <t>01358146-3</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>255127080005</t>
+          <t>76920768</t>
         </is>
       </c>
       <c r="M12" s="1" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="N12" s="1" t="inlineStr">
         <is>
-          <t>GERENTE ADMINISTRATIVO</t>
+          <t>COORDINADOR DE ZONA</t>
         </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
@@ -1035,17 +1054,17 @@
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t>389694555</t>
+          <t>895763455</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>0614-071169-110-1</t>
+          <t>0202-290676-103-4</t>
         </is>
       </c>
       <c r="S12" s="1" t="inlineStr">
         <is>
-          <t>0322-045110-3</t>
+          <t>0361-071884-0</t>
         </is>
       </c>
       <c r="T12" s="1" t="inlineStr">
@@ -1057,12 +1076,12 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>011988</t>
+          <t>000068</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>LUIS FRANCISCO  RECINOS HENRIQUEZ/SIN UNIFORME</t>
+          <t>JULIO ANTONIO  HERNANDEZ MARTINEZ/SIN UNIFORME</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -1078,12 +1097,12 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>2001-11-17 00:00:00 </t>
+          <t>2016-12-05 00:00:00 </t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>2001-11-17 00:00:00  </t>
+          <t>2016-12-19 00:00:00  </t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
@@ -1098,45 +1117,50 @@
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>05010802-8</t>
+          <t>15/12/05</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
+          <t>00111830-1</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L13" s="1" t="inlineStr">
+      <c r="M13" s="1" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="M13" s="1" t="inlineStr">
-        <is>
-          <t>MANTENIMIENTO</t>
-        </is>
-      </c>
       <c r="N13" s="1" t="inlineStr">
         <is>
+          <t>JEFE DE OPERACIONES</t>
+        </is>
+      </c>
+      <c r="O13" s="1" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="O13" s="1" t="inlineStr">
+      <c r="P13" s="1" t="inlineStr">
         <is>
           <t>0000-00-00</t>
         </is>
       </c>
-      <c r="P13" s="1" t="inlineStr">
-        <is>
-          <t>0302-300694-101-0</t>
-        </is>
-      </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>0366-043123-5</t>
+          <t>11150901701010</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
+        <is>
+          <t>0310-007974-9</t>
+        </is>
+      </c>
+      <c r="S13" s="1" t="inlineStr">
         <is>
           <t>MOTIVO</t>
         </is>
@@ -1145,24 +1169,20 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>013203</t>
+          <t>000006</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>JOSE BENJAMIN  SANTOS HERNANDEZ/SIN UNIFORME</t>
+          <t>JOSE LUIS  CAMPOS ESCAMILLA/SIN UNIFORME</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>305.00 </t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>0.00 </t>
+        </is>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="inlineStr">
         <is>
           <t>  </t>
@@ -1170,12 +1190,12 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>2017-10-19 00:00:00 </t>
+          <t>0000-00-00 00:00:00 </t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>2017-10-19 00:00:00  </t>
+          <t>2004-11-22 00:00:00  </t>
         </is>
       </c>
       <c r="H14" s="1" t="inlineStr">
@@ -1190,27 +1210,27 @@
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>17/10/19</t>
+          <t>16/07/04</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>02264938-3</t>
+          <t>02054270-5</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>275402640001</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M14" s="1" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0000</t>
         </is>
       </c>
       <c r="N14" s="1" t="inlineStr">
         <is>
-          <t>AGENTE DE SEGURIDAD</t>
+          <t>JEFE DE OPERACIONES</t>
         </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
@@ -1225,20 +1245,15 @@
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>106750779</t>
+          <t>07061809691017</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>0210-280575-110-4</t>
+          <t>0122-039067-4</t>
         </is>
       </c>
       <c r="S14" s="1" t="inlineStr">
-        <is>
-          <t>0311-109439-1</t>
-        </is>
-      </c>
-      <c r="T14" s="1" t="inlineStr">
         <is>
           <t>MOTIVO</t>
         </is>
@@ -1247,17 +1262,17 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>013882</t>
+          <t>011160</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>HUGO LUIS  BARILLAS SANABRIA/SIN UNIFORME</t>
+          <t>JOSE ALFREDO  CORNEJO LINARES/SIN UNIFORME</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>305.00 </t>
+          <t>0.00 </t>
         </is>
       </c>
       <c r="D15" s="1"/>
@@ -1268,12 +1283,12 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>2021-01-21 00:00:00 </t>
+          <t>2018-03-16 00:00:00 </t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>2021-01-21 00:00:00  </t>
+          <t>2005-02-23 00:00:00  </t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
@@ -1288,27 +1303,27 @@
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>26/01/21</t>
+          <t>21/04/17</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>03356690-4</t>
+          <t>02339514-9</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>313512220018</t>
+          <t>291382280003</t>
         </is>
       </c>
       <c r="M15" s="1" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="N15" s="1" t="inlineStr">
         <is>
-          <t>AGENTE DE SEGURIDAD</t>
+          <t>COORDINADOR DE ZONA</t>
         </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
@@ -1323,17 +1338,17 @@
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>106856963</t>
+          <t>100792553</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>0210-021185-106-8</t>
+          <t>0202-121079-101-3</t>
         </is>
       </c>
       <c r="S15" s="1" t="inlineStr">
         <is>
-          <t>0322-059358-2</t>
+          <t>0367-026001-5</t>
         </is>
       </c>
       <c r="T15" s="1" t="inlineStr">
@@ -1345,20 +1360,24 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>013930</t>
+          <t>012834</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>JUAN ANTONIO  HENRIQUEZ ANZORA/SIN UNIFORME</t>
+          <t>ANDRES ELADIO  SORTO /SIN UNIFORME</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>0.00 </t>
-        </is>
-      </c>
-      <c r="D16" s="1"/>
+          <t>305.00 </t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
           <t>  </t>
@@ -1366,12 +1385,12 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>2010-02-21 00:00:00 </t>
+          <t>2030-05-19 00:00:00 </t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>2010-02-21 00:00:00  </t>
+          <t>2030-05-19 00:00:00  </t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
@@ -1386,22 +1405,22 @@
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>19/02/21</t>
+          <t>31/05/19</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>03536638-4</t>
+          <t>00472015-7</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
         <is>
-          <t>315301870000</t>
+          <t>71881415</t>
         </is>
       </c>
       <c r="M16" s="1" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="N16" s="1" t="inlineStr">
@@ -1421,17 +1440,17 @@
       </c>
       <c r="Q16" s="1" t="inlineStr">
         <is>
-          <t>107861358</t>
+          <t>197712526</t>
         </is>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>0706-300486-101-6</t>
+          <t>1002-250271-101-8</t>
         </is>
       </c>
       <c r="S16" s="1" t="inlineStr">
         <is>
-          <t>0311-255798-3</t>
+          <t>0311-043350-5</t>
         </is>
       </c>
       <c r="T16" s="1" t="inlineStr">
@@ -1443,12 +1462,12 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>015517</t>
+          <t>014550</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>JOSE ALBERTO  TOBAR ORTIZ/SIN UNIFORME</t>
+          <t>OSCAR DAVID  GAITAN GAITAN/SIN UNIFORME</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -1464,12 +1483,12 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>2006-03-23 00:00:00 </t>
+          <t>2015-01-22 00:00:00 </t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>2006-03-23 00:00:00  </t>
+          <t>2001-09-22 00:00:00  </t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
@@ -1484,55 +1503,437 @@
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>06/03/23</t>
+          <t>15/01/22</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>03879639-2</t>
+          <t>01530888-7</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
-          <t>321682590002</t>
+          <t>286701850000</t>
         </is>
       </c>
       <c r="M17" s="1" t="inlineStr">
         <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="N17" s="1" t="inlineStr">
+        <is>
+          <t>AGENTE DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="O17" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P17" s="1" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
+      <c r="Q17" s="1" t="inlineStr">
+        <is>
+          <t>199783084</t>
+        </is>
+      </c>
+      <c r="R17" s="1" t="inlineStr">
+        <is>
+          <t>1111-010778-102-3</t>
+        </is>
+      </c>
+      <c r="S17" s="1" t="inlineStr">
+        <is>
+          <t>0351-089919-1</t>
+        </is>
+      </c>
+      <c r="T17" s="1" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>014676</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>ALFREDO ANTONIO  GARCIA MENDOZA/SIN UNIFORME</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>0.00 </t>
+        </is>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>2029-03-22 00:00:00 </t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>2029-03-22 00:00:00  </t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>F.RETIRO</t>
+        </is>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>******</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="inlineStr">
+        <is>
+          <t>31/03/22</t>
+        </is>
+      </c>
+      <c r="K18" s="1" t="inlineStr">
+        <is>
+          <t>01579109-8</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="inlineStr">
+        <is>
+          <t>272571990000</t>
+        </is>
+      </c>
+      <c r="M18" s="1" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="N18" s="1" t="inlineStr">
+        <is>
+          <t>AGENTE DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="O18" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P18" s="1" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
+      <c r="Q18" s="1" t="inlineStr">
+        <is>
+          <t>093742764</t>
+        </is>
+      </c>
+      <c r="R18" s="1" t="inlineStr">
+        <is>
+          <t>0710-180874-101-2</t>
+        </is>
+      </c>
+      <c r="S18" s="1" t="inlineStr">
+        <is>
+          <t>0311-012722-5</t>
+        </is>
+      </c>
+      <c r="T18" s="1" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>015569</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>JOSE LORENZO  MELENDEZ ALVARADO/SIN UNIFORME</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>0.00 </t>
+        </is>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>2010-03-23 00:00:00 </t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>2010-03-23 00:00:00  </t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>F.RETIRO</t>
+        </is>
+      </c>
+      <c r="I19" s="1" t="inlineStr">
+        <is>
+          <t>******</t>
+        </is>
+      </c>
+      <c r="J19" s="1" t="inlineStr">
+        <is>
+          <t>01288240-0</t>
+        </is>
+      </c>
+      <c r="K19" s="1" t="inlineStr">
+        <is>
+          <t>253942460001</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
           <t>0001</t>
         </is>
       </c>
-      <c r="N17" s="1" t="inlineStr">
+      <c r="M19" s="1" t="inlineStr">
         <is>
           <t>AGENTE DE SEGURIDAD</t>
         </is>
       </c>
-      <c r="O17" s="1" t="inlineStr">
+      <c r="N19" s="1" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="P17" s="1" t="inlineStr">
+      <c r="O19" s="1" t="inlineStr">
         <is>
           <t>0000-00-00</t>
         </is>
       </c>
-      <c r="Q17" s="1" t="inlineStr">
-        <is>
-          <t>107885362</t>
-        </is>
-      </c>
-      <c r="R17" s="1" t="inlineStr">
-        <is>
-          <t>0309-280188-101-0</t>
-        </is>
-      </c>
-      <c r="S17" s="1" t="inlineStr">
-        <is>
-          <t>0322-065675-1</t>
-        </is>
-      </c>
-      <c r="T17" s="1" t="inlineStr">
+      <c r="P19" s="1" t="inlineStr">
+        <is>
+          <t>105690783</t>
+        </is>
+      </c>
+      <c r="Q19" s="1" t="inlineStr">
+        <is>
+          <t>1009-120769-101-5</t>
+        </is>
+      </c>
+      <c r="R19" s="1" t="inlineStr">
+        <is>
+          <t>0348-045539-9</t>
+        </is>
+      </c>
+      <c r="S19" s="1" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>015611</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>CARLOS DANIEL  HERRERA MONZON/SIN UNIFORME</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>365.00 </t>
+        </is>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-23 00:00:00 </t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-23 00:00:00  </t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>F.RETIRO</t>
+        </is>
+      </c>
+      <c r="I20" s="1" t="inlineStr">
+        <is>
+          <t>******</t>
+        </is>
+      </c>
+      <c r="J20" s="1" t="inlineStr">
+        <is>
+          <t>06115260-8</t>
+        </is>
+      </c>
+      <c r="K20" s="1" t="inlineStr">
+        <is>
+          <t>368062140003</t>
+        </is>
+      </c>
+      <c r="L20" s="1" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="M20" s="1" t="inlineStr">
+        <is>
+          <t>AGENTE DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="N20" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O20" s="1" t="inlineStr">
+        <is>
+          <t>2009-10-00</t>
+        </is>
+      </c>
+      <c r="P20" s="1" t="inlineStr">
+        <is>
+          <t>200006419</t>
+        </is>
+      </c>
+      <c r="Q20" s="1" t="inlineStr">
+        <is>
+          <t>0000-000000-000-0</t>
+        </is>
+      </c>
+      <c r="R20" s="1" t="inlineStr">
+        <is>
+          <t>0361-079821-6</t>
+        </is>
+      </c>
+      <c r="S20" s="1" t="inlineStr">
+        <is>
+          <t>MOTIVO</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ANGEL FERNANDO  CALLEJAS RODAS/SIN UNIFORME</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>365.00 </t>
+        </is>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>2014-04-23 00:00:00 </t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>2014-04-23 00:00:00  </t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>F.RETIRO</t>
+        </is>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>******</t>
+        </is>
+      </c>
+      <c r="J21" s="1" t="inlineStr">
+        <is>
+          <t>15/04/23</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>00069256-4</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t>237351890003</t>
+        </is>
+      </c>
+      <c r="M21" s="1" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="N21" s="1" t="inlineStr">
+        <is>
+          <t>AGENTE DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="O21" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="P21" s="1" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
+      <c r="Q21" s="1" t="inlineStr">
+        <is>
+          <t>893641286</t>
+        </is>
+      </c>
+      <c r="R21" s="1" t="inlineStr">
+        <is>
+          <t>0511-261264-001-0</t>
+        </is>
+      </c>
+      <c r="S21" s="1" t="inlineStr">
+        <is>
+          <t>0105-035269-7</t>
+        </is>
+      </c>
+      <c r="T21" s="1" t="inlineStr">
         <is>
           <t>MOTIVO</t>
         </is>
